--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_6_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_6_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01184228237580862</v>
+        <v>0.1275699870682362</v>
       </c>
       <c r="C2">
-        <v>0.2994337950866811</v>
+        <v>0.2949975552939468</v>
       </c>
       <c r="D2">
-        <v>0.1567564506846678</v>
+        <v>0.150653331260784</v>
       </c>
       <c r="E2">
-        <v>0.3959248043311606</v>
+        <v>0.3881408652290866</v>
       </c>
       <c r="F2">
-        <v>0.4010599476403166</v>
+        <v>0.3748164570332126</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.005990942540992515</v>
+        <v>-0.01521116492496113</v>
       </c>
       <c r="C3">
-        <v>0.2773016339878343</v>
+        <v>0.2722868036881911</v>
       </c>
       <c r="D3">
-        <v>0.132021398238222</v>
+        <v>0.1278291975161459</v>
       </c>
       <c r="E3">
-        <v>0.3633474896544931</v>
+        <v>0.3575320929876729</v>
       </c>
       <c r="F3">
-        <v>0.3683093413487357</v>
+        <v>0.3656144205965373</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.001165051129097208</v>
+        <v>0.1098904018663597</v>
       </c>
       <c r="C4">
-        <v>0.2688873691293598</v>
+        <v>0.2824368076085529</v>
       </c>
       <c r="D4">
-        <v>0.1245603793383229</v>
+        <v>0.1273013017406104</v>
       </c>
       <c r="E4">
-        <v>0.3529311254881367</v>
+        <v>0.3567930797263457</v>
       </c>
       <c r="F4">
-        <v>0.3579355405572677</v>
+        <v>0.3478313835526827</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02675024060296683</v>
+        <v>0.0325328965656304</v>
       </c>
       <c r="C5">
-        <v>0.2572864321469027</v>
+        <v>0.2428801592263986</v>
       </c>
       <c r="D5">
-        <v>0.104536564564629</v>
+        <v>0.08899619181356792</v>
       </c>
       <c r="E5">
-        <v>0.3233211477225531</v>
+        <v>0.2983222952002882</v>
       </c>
       <c r="F5">
-        <v>0.3269167289968022</v>
+        <v>0.3042467877348358</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01947443602904284</v>
+        <v>0.07522128658533693</v>
       </c>
       <c r="C6">
-        <v>0.2514179309752446</v>
+        <v>0.2678359888536521</v>
       </c>
       <c r="D6">
-        <v>0.1045408656979903</v>
+        <v>0.1192928843907551</v>
       </c>
       <c r="E6">
-        <v>0.3233277991419704</v>
+        <v>0.3453880200452168</v>
       </c>
       <c r="F6">
-        <v>0.3275942986765515</v>
+        <v>0.3463346331599631</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02409134026834974</v>
+        <v>0.02628598706572433</v>
       </c>
       <c r="C7">
-        <v>0.2630115657022617</v>
+        <v>0.2431904892130187</v>
       </c>
       <c r="D7">
-        <v>0.1133527256901181</v>
+        <v>0.0933406381209692</v>
       </c>
       <c r="E7">
-        <v>0.336678965321741</v>
+        <v>0.3055170013615759</v>
       </c>
       <c r="F7">
-        <v>0.3410226802148007</v>
+        <v>0.3132086628365013</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.007388518532419629</v>
+        <v>0.05644726556593638</v>
       </c>
       <c r="C8">
-        <v>0.2597869454848353</v>
+        <v>0.2954772732059698</v>
       </c>
       <c r="D8">
-        <v>0.1112252353819079</v>
+        <v>0.1339965475761727</v>
       </c>
       <c r="E8">
-        <v>0.3335044758049101</v>
+        <v>0.3660553886724968</v>
       </c>
       <c r="F8">
-        <v>0.3387577231889846</v>
+        <v>0.372808120415778</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
